--- a/日経社説ー春秋/自治体による民泊の規制は最小限に.xlsx
+++ b/日経社説ー春秋/自治体による民泊の規制は最小限に.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,132 +19,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
-  <si>
-    <t>規制</t>
-  </si>
-  <si>
-    <t>空き部屋</t>
-  </si>
-  <si>
-    <t>みんぱく</t>
-  </si>
-  <si>
-    <t>民泊</t>
-  </si>
-  <si>
-    <t>独自</t>
-  </si>
-  <si>
-    <t>稼働</t>
-  </si>
-  <si>
-    <t>明記</t>
-  </si>
-  <si>
-    <t>盛り込む</t>
-  </si>
-  <si>
-    <t>伸び悩む</t>
-  </si>
-  <si>
-    <t>独り立ち</t>
-  </si>
-  <si>
-    <t>家主</t>
-  </si>
-  <si>
-    <t>狭める</t>
-  </si>
-  <si>
-    <t>削ぐ</t>
-  </si>
-  <si>
-    <t>誘致</t>
-  </si>
-  <si>
-    <t>きせい</t>
-  </si>
-  <si>
-    <t>物事をなす際に従うべききまり。</t>
-  </si>
-  <si>
-    <t>あきべや</t>
-  </si>
-  <si>
-    <t>旅館などで泊り客のない部屋。</t>
-  </si>
-  <si>
-    <t>民家に宿泊するｋと。</t>
-  </si>
-  <si>
-    <t>どくじ</t>
-  </si>
-  <si>
-    <t>他の影響を受けずに、その人ひとりのやり方や発想で物事を行うさま。</t>
-  </si>
-  <si>
-    <t>かどう</t>
-  </si>
-  <si>
-    <t>稼ぎ働くこと。生産に従事すること。</t>
-  </si>
-  <si>
-    <t>めいき</t>
-  </si>
-  <si>
-    <t>はっきりと書くこと。</t>
-  </si>
-  <si>
-    <t>全体の中の一部として入れる。組み入れる。</t>
-  </si>
-  <si>
-    <t>のびなやむ</t>
-  </si>
-  <si>
-    <t>能力や勢いが盛んになろうとしているのにある段階で停滞してそれ以上になれずにいる。</t>
-  </si>
-  <si>
-    <t>ひとりだち</t>
-  </si>
-  <si>
-    <t>他人に支えてもらったり物につかまったりせず、自分ひとりで立ち上がること。</t>
-  </si>
-  <si>
-    <t>やぬし</t>
-  </si>
-  <si>
-    <t>一家の主人。</t>
-  </si>
-  <si>
-    <t>せばめる</t>
-  </si>
-  <si>
-    <t>幅を狭くする。また、二者の間の距離・隔たりを小さくする。</t>
-  </si>
-  <si>
-    <t>そぐ</t>
-  </si>
-  <si>
-    <t>勢いを弱くする。なくなるようにする。</t>
-  </si>
-  <si>
-    <t>ゆうち</t>
-  </si>
-  <si>
-    <t>招き寄せること。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>個人住宅の空き部屋などに旅行者を有料で宿泊させる「民泊」について、政府や自民党に、自治体が独自に条例を定め稼働日数を制限できるようにしようという動きがある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民泊は観光地としての魅力を高め、個人の持つ資産の活用にも道を開く。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>営業日数などの規制は最小限にとどめるべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府は今国会に民泊解禁のための新法を提出する予定だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この中に、営業日数を年間１８０日までと明記した上で、生活環境悪化の防止などを理由に、個々の自治体が上限日数をさらに短く定められるとの項目を盛り込む方向で検討が進んでいる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有名観光地などで民泊が事実上、不可能になる事態も考えられる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民泊での滞在を希望する外国人には、日本のファンとなり、普通の日本の生活を体験したい人も多い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供が独り立ちした後の部屋にそうした旅行者を泊めれば外国人は喜び、家主は外国人と交流できる上に収入も得られる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これが民泊本来の姿だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自治体が地域の特性に基づき民泊について判断するのはもっともだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮に自治体による営業日数の制限を可能にするとしても、規制は最小限にとどめてはどうか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既存の業界を保護するために新サービスの芽を摘むとしたら、長い目でみて地域の活力を削ぐことにつながりかねない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民泊を始め、個人の資産や技能を多くに人と共有し生かす「シェアリングエコノミー」が各国で広がっている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国人観光客の誘致も、アジアなどの経済成長を国内に取り込むのは有効だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民泊という新しい文化をうまく生かしたい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅館業界は民泊の合法化にかねて反発しており、解禁する場合でも稼働日数を短く制限すべきだと主張してきた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮に自治体が上限をゼロ日と定めれば、一部の特区を除き、その地域での合法的な民泊できなくなる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訪日外国人は増えたが旅館の稼働率は伸び悩んでいる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅館業界の新興勢力を警戒するより、外国員の客の取り込みを工夫し、日本の宿泊業全体の魅力向上につなげてほしい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府は旅館業を保護するのではなく、設備などの過剰な規制を緩和し、コスト負担を下げるといった形で支援すべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一方で、民泊への過度な規制は、地域の住民の資産活用や国際交流の道を狭めるという側面もある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,11 +145,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,171 +422,135 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="79.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="40.5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="27">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>